--- a/OIM/prac/prac5/ПРИ-120-ОИМ-ПРАКТИКА-#5-Грачев.xlsx
+++ b/OIM/prac/prac5/ПРИ-120-ОИМ-ПРАКТИКА-#5-Грачев.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\VlSU\OIM\prac\prac5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gggchaseggg/Documents/GitHub/VlSU/OIM/prac/prac5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8421B3-AAE4-4C3A-AEDD-000BBE2E0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B214E-D7CB-1149-86C7-FB8ACB7F97B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -420,65 +420,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>533399</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>161182</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0847D14A-4ABA-4036-837C-26B0562E540D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,26 +684,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -779,7 +722,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -797,7 +740,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -821,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
@@ -842,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -853,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -864,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -875,13 +818,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -890,7 +833,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -898,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -918,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>42</v>
       </c>
@@ -938,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>43</v>
       </c>
@@ -960,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>44</v>
       </c>
@@ -982,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>45</v>
       </c>
@@ -1002,10 +945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>22</v>
       </c>
@@ -1107,10 +1050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>23</v>
       </c>
@@ -1127,14 +1070,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>46</v>
       </c>
@@ -1146,7 +1089,7 @@
         <v>681.81818181818187</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>47</v>
       </c>
@@ -1158,19 +1101,19 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1125,7 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>31</v>
       </c>
@@ -1194,7 +1137,7 @@
         <v>426.13636363636363</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>32</v>
       </c>
@@ -1206,19 +1149,19 @@
         <v>284.09090909090907</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
@@ -1230,12 +1173,12 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1213,7 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1233,7 @@
         <v>568.18181818181813</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1246,7 @@
         <v>6136.363636363636</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>2</v>
       </c>
@@ -1311,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="26" t="s">
         <v>10</v>
@@ -1320,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1277,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>29</v>
       </c>
@@ -1348,7 +1291,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1315,7 @@
         <v>4.2780748663101607</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>40</v>
       </c>
@@ -1398,34 +1341,5 @@
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>